--- a/newFinancialSample.xlsx
+++ b/newFinancialSample.xlsx
@@ -44257,7 +44257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44347,6 +44347,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44358,7 +44359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44448,6 +44449,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44459,7 +44461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44549,6 +44551,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44560,7 +44563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44650,6 +44653,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44661,7 +44665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44751,6 +44755,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
